--- a/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="391">
   <si>
     <t>Serie</t>
   </si>
@@ -1184,6 +1184,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N380"/>
+  <dimension ref="A1:N381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18186,11 +18189,38 @@
       <c r="B379">
         <v>161376</v>
       </c>
+      <c r="C379">
+        <v>160465</v>
+      </c>
+      <c r="D379">
+        <v>634</v>
+      </c>
+      <c r="E379">
+        <v>112</v>
+      </c>
       <c r="F379">
         <v>165</v>
       </c>
       <c r="G379">
         <v>161376</v>
+      </c>
+      <c r="H379">
+        <v>66813</v>
+      </c>
+      <c r="I379">
+        <v>12990</v>
+      </c>
+      <c r="J379">
+        <v>53823</v>
+      </c>
+      <c r="K379">
+        <v>94563</v>
+      </c>
+      <c r="L379">
+        <v>9979</v>
+      </c>
+      <c r="M379">
+        <v>84043</v>
       </c>
       <c r="N379">
         <v>542</v>
@@ -18201,16 +18231,33 @@
         <v>389</v>
       </c>
       <c r="B380">
-        <v>162270</v>
+        <v>162562</v>
       </c>
       <c r="F380">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G380">
-        <v>162270</v>
+        <v>162562</v>
       </c>
       <c r="N380">
-        <v>537</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14">
+      <c r="A381" t="s">
+        <v>390</v>
+      </c>
+      <c r="B381">
+        <v>163622</v>
+      </c>
+      <c r="F381">
+        <v>109</v>
+      </c>
+      <c r="G381">
+        <v>163622</v>
+      </c>
+      <c r="N381">
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
@@ -18248,16 +18248,16 @@
         <v>390</v>
       </c>
       <c r="B381">
-        <v>163622</v>
+        <v>163906</v>
       </c>
       <c r="F381">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G381">
-        <v>163622</v>
+        <v>163906</v>
       </c>
       <c r="N381">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="392">
   <si>
     <t>Serie</t>
   </si>
@@ -1187,6 +1187,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N381"/>
+  <dimension ref="A1:N382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18233,11 +18236,38 @@
       <c r="B380">
         <v>162562</v>
       </c>
+      <c r="C380">
+        <v>161646</v>
+      </c>
+      <c r="D380">
+        <v>609</v>
+      </c>
+      <c r="E380">
+        <v>120</v>
+      </c>
       <c r="F380">
         <v>186</v>
       </c>
       <c r="G380">
         <v>162562</v>
+      </c>
+      <c r="H380">
+        <v>67474</v>
+      </c>
+      <c r="I380">
+        <v>13210</v>
+      </c>
+      <c r="J380">
+        <v>54263</v>
+      </c>
+      <c r="K380">
+        <v>95088</v>
+      </c>
+      <c r="L380">
+        <v>10372</v>
+      </c>
+      <c r="M380">
+        <v>84185</v>
       </c>
       <c r="N380">
         <v>531</v>
@@ -18258,6 +18288,23 @@
       </c>
       <c r="N381">
         <v>518</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
+      <c r="A382" t="s">
+        <v>391</v>
+      </c>
+      <c r="B382">
+        <v>165069</v>
+      </c>
+      <c r="F382">
+        <v>129</v>
+      </c>
+      <c r="G382">
+        <v>165069</v>
+      </c>
+      <c r="N382">
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
@@ -18295,16 +18295,16 @@
         <v>391</v>
       </c>
       <c r="B382">
-        <v>165069</v>
+        <v>165153</v>
       </c>
       <c r="F382">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G382">
-        <v>165069</v>
+        <v>165153</v>
       </c>
       <c r="N382">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="393">
   <si>
     <t>Serie</t>
   </si>
@@ -1190,6 +1190,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N382"/>
+  <dimension ref="A1:N383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18280,11 +18283,38 @@
       <c r="B381">
         <v>163906</v>
       </c>
+      <c r="C381">
+        <v>162946</v>
+      </c>
+      <c r="D381">
+        <v>715</v>
+      </c>
+      <c r="E381">
+        <v>131</v>
+      </c>
       <c r="F381">
         <v>114</v>
       </c>
       <c r="G381">
         <v>163906</v>
+      </c>
+      <c r="H381">
+        <v>68323</v>
+      </c>
+      <c r="I381">
+        <v>13359</v>
+      </c>
+      <c r="J381">
+        <v>54964</v>
+      </c>
+      <c r="K381">
+        <v>95583</v>
+      </c>
+      <c r="L381">
+        <v>10404</v>
+      </c>
+      <c r="M381">
+        <v>84661</v>
       </c>
       <c r="N381">
         <v>518</v>
@@ -18305,6 +18335,23 @@
       </c>
       <c r="N382">
         <v>510</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14">
+      <c r="A383" t="s">
+        <v>392</v>
+      </c>
+      <c r="B383">
+        <v>166013</v>
+      </c>
+      <c r="F383">
+        <v>72</v>
+      </c>
+      <c r="G383">
+        <v>166013</v>
+      </c>
+      <c r="N383">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
+++ b/5/2/3/Promedios 1990 a 2021 - Mensual.xlsx
@@ -18342,16 +18342,16 @@
         <v>392</v>
       </c>
       <c r="B383">
-        <v>166013</v>
+        <v>166590</v>
       </c>
       <c r="F383">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="G383">
-        <v>166013</v>
+        <v>166590</v>
       </c>
       <c r="N383">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
